--- a/biology/Zoologie/Cuculinae/Cuculinae.xlsx
+++ b/biology/Zoologie/Cuculinae/Cuculinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La sous-famille des Cuculinae regroupe 92 espèces de coucous et autres oiseaux apparentés de la famille des Cuculidae, appelés malcohas, piayes, taccos ou coulicous.
 Ces oiseaux ont pour caractéristique le parasitisme de couvée ou de ponte. L'exemple le plus connu restant celui du coucou gris.
@@ -512,7 +524,9 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>D'après Alan P. Peterson :
 genre Rhinortha (1 espèce)
@@ -564,7 +578,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">D'après la classification de référence (version 2.4, 2010) du Congrès ornithologique international, les espèces présentes existantes dans ces genres sont (ordre phylogénique) :
 Espèces par ordre phylogénique
